--- a/My 3D RPG/Assets/StaticData/Excel/Stage.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Stage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,15 +74,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stageNovel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+    <t>스페어 마을</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,21 +421,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="4" width="30.625" customWidth="1"/>
-    <col min="5" max="7" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,19 +448,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -477,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -485,11 +476,8 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -500,19 +488,16 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>2000</v>
+        <v>-1</v>
       </c>
       <c r="E3">
         <v>-1</v>
       </c>
       <c r="F3">
-        <v>-1</v>
-      </c>
-      <c r="G3">
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -522,16 +507,13 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
-        <v>3000</v>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="F4">
         <v>1000</v>
       </c>
     </row>

--- a/My 3D RPG/Assets/StaticData/Excel/Stage.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Stage.xlsx
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000, 1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>첫번째 던전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,15 +62,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>스페어 마을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000, 1001, 1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 1, 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -482,10 +482,10 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -502,16 +502,16 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>1000</v>

--- a/My 3D RPG/Assets/StaticData/Excel/Stage.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Stage.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,14 @@
   </si>
   <si>
     <t>0, 1, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageMonCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -432,12 +440,13 @@
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,16 +457,19 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -468,7 +480,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -476,8 +488,11 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -488,16 +503,19 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>-1</v>
       </c>
       <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -507,13 +525,16 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1000</v>
       </c>
     </row>

--- a/My 3D RPG/Assets/StaticData/Excel/Stage.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Stage.xlsx
@@ -526,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
